--- a/Bases/regionescomida.xlsx
+++ b/Bases/regionescomida.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Dropbox/U Externado/Geografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5918CC61-4CAC-4B47-B79D-804D67512E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A8B64D-7A96-B949-8D03-5B9B8ECA6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{32A839DA-ECB3-8449-B6CF-8F27D3782041}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="regionescomida" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -689,15 +689,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0390D-05CB-7542-8920-96BF4C6CE4F9}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/Bases/regionescomida.xlsx
+++ b/Bases/regionescomida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Dropbox/U Externado/Geografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A8B64D-7A96-B949-8D03-5B9B8ECA6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55EF0014-AB9C-E94B-921E-C6B536A8FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{32A839DA-ECB3-8449-B6CF-8F27D3782041}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
   <si>
     <t>Amazonas</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Bandeja Paisa</t>
   </si>
   <si>
-    <t>Bocadillo</t>
-  </si>
-  <si>
     <t>Lechona</t>
   </si>
   <si>
@@ -329,6 +326,108 @@
   </si>
   <si>
     <t>Caldo de curito</t>
+  </si>
+  <si>
+    <t>Palabra</t>
+  </si>
+  <si>
+    <t>Tunchi</t>
+  </si>
+  <si>
+    <t>Parce</t>
+  </si>
+  <si>
+    <t>Baquiano</t>
+  </si>
+  <si>
+    <t>Cógela suave</t>
+  </si>
+  <si>
+    <t>Carachas</t>
+  </si>
+  <si>
+    <t>Cipote</t>
+  </si>
+  <si>
+    <t>De raca mandaca</t>
+  </si>
+  <si>
+    <t>Chimba</t>
+  </si>
+  <si>
+    <t>Lisonjero</t>
+  </si>
+  <si>
+    <t>Picuriar</t>
+  </si>
+  <si>
+    <t>Calentura</t>
+  </si>
+  <si>
+    <t>Bollito</t>
+  </si>
+  <si>
+    <t>Bemba</t>
+  </si>
+  <si>
+    <t>Avispado</t>
+  </si>
+  <si>
+    <t>Ishirido</t>
+  </si>
+  <si>
+    <t>Pana</t>
+  </si>
+  <si>
+    <t>Aguatudo</t>
+  </si>
+  <si>
+    <t>Erda</t>
+  </si>
+  <si>
+    <t>Encoñao</t>
+  </si>
+  <si>
+    <t>Jincho</t>
+  </si>
+  <si>
+    <t>Achalay</t>
+  </si>
+  <si>
+    <t>Chimbilaco</t>
+  </si>
+  <si>
+    <t>Nono</t>
+  </si>
+  <si>
+    <t>Berraco</t>
+  </si>
+  <si>
+    <t>Achilado</t>
+  </si>
+  <si>
+    <t>Wat ah seshan</t>
+  </si>
+  <si>
+    <t>Pescado</t>
+  </si>
+  <si>
+    <t>Buche</t>
+  </si>
+  <si>
+    <t>Arrebatao</t>
+  </si>
+  <si>
+    <t>Chuspa</t>
+  </si>
+  <si>
+    <t>Caboco</t>
+  </si>
+  <si>
+    <t>Egua</t>
+  </si>
+  <si>
+    <t>Mica</t>
   </si>
 </sst>
 </file>
@@ -687,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA0390D-05CB-7542-8920-96BF4C6CE4F9}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,9 +797,11 @@
     <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -713,8 +814,11 @@
       <c r="D1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,10 +829,14 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,8 +849,12 @@
       <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,10 +865,14 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,413 +883,486 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
         <v>30</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1">
-        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
         <v>40</v>
-      </c>
-      <c r="C23" s="1">
-        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
+      <c r="E33" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Bases/regionescomida.xlsx
+++ b/Bases/regionescomida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Dropbox/U Externado/Geografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{55EF0014-AB9C-E94B-921E-C6B536A8FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E365F1E-72B3-6C44-986B-8B3131D25A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{32A839DA-ECB3-8449-B6CF-8F27D3782041}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
